--- a/10.8/库房物料.xlsx
+++ b/10.8/库房物料.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="库房物料" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3769,8 +3769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A426" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D490" sqref="D490"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A231" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="77" spans="1:6" ht="22.5">
       <c r="A77" s="5">
-        <v>410629900010</v>
+        <v>419990100010</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>68</v>
